--- a/Doc/DR-Facturacion-VeriFactu-OM_RD-1007-2023-BORRADOR.xlsx
+++ b/Doc/DR-Facturacion-VeriFactu-OM_RD-1007-2023-BORRADOR.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D78A4-BCE1-4781-BA18-81A442563ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3225" windowWidth="29040" windowHeight="15720" tabRatio="942" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="3300" tabRatio="942" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0)Control de cambios" sheetId="19" r:id="rId1"/>
@@ -3633,7 +3632,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="48">
     <font>
       <sz val="11"/>
@@ -4263,29 +4262,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4295,8 +4300,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4318,14 +4323,16 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4352,7 +4359,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4491,39 +4513,54 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4557,128 +4594,176 @@
     <xf numFmtId="0" fontId="34" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4689,18 +4774,6 @@
     <xf numFmtId="0" fontId="34" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4713,27 +4786,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4776,6 +4828,27 @@
     <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4785,29 +4858,14 @@
     <xf numFmtId="0" fontId="38" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4815,14 +4873,41 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4851,39 +4936,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4891,12 +4943,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5173,7 +5228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -5182,144 +5237,144 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="160.5703125" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="160.5703125" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="42" t="s">
         <v>686</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="43">
         <v>45567</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="44" t="s">
         <v>687</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="45" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="42" t="s">
         <v>681</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="43">
         <v>45559</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="44" t="s">
         <v>678</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="45" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="42" t="s">
         <v>677</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="43">
         <v>45551</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="44" t="s">
         <v>678</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="45" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="42" t="s">
         <v>661</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="43">
         <v>45545</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="44" t="s">
         <v>662</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="45" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="42" t="s">
         <v>657</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="43">
         <v>45492</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="44" t="s">
         <v>658</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="45" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:5" customFormat="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="42" t="s">
         <v>635</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="43">
         <v>45450</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="44">
         <v>6</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="45" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="43">
         <v>45411</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="44" t="s">
         <v>622</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="24" t="s">
         <v>173</v>
       </c>
       <c r="E8" t="s">
@@ -5327,240 +5382,240 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="43">
         <v>45407</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="44" t="s">
         <v>622</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="45" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="43">
         <v>45399</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="45" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="43">
         <v>45398</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="45" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="43">
         <v>45397</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="45" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="43">
         <v>45397</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="45" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="43">
         <v>45385</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="44">
         <v>4</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="45" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:5" s="46" customFormat="1">
+      <c r="A15" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="43">
         <v>45371</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="44">
         <v>2</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:5" s="46" customFormat="1" ht="30">
+      <c r="A16" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="43">
         <v>45370</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="45" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="43">
         <v>45363</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="45" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="26">
         <v>45356</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="22" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="26">
         <v>45280</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="22" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="26">
         <v>45279</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="24">
         <v>0</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="22" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="26">
         <v>45279</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="24">
         <v>1</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="22" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="26">
         <v>45279</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="23" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5571,7 +5626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5591,304 +5646,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="215" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="235" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="216"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="237"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="230" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="198" t="s">
+      <c r="C4" s="230" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="230" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="198" t="s">
+      <c r="E4" s="230" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="198" t="s">
+      <c r="F4" s="230" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="198" t="s">
+      <c r="G4" s="230" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="195" t="s">
+      <c r="H4" s="227" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="196"/>
-      <c r="J4" s="197"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="229"/>
     </row>
     <row r="5" spans="2:11" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="33" t="s">
+      <c r="B5" s="231"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="39" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="72.75" thickBot="1">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="H6" s="203" t="s">
+      <c r="H6" s="225" t="s">
         <v>257</v>
       </c>
-      <c r="I6" s="204" t="s">
+      <c r="I6" s="223" t="s">
         <v>256</v>
       </c>
-      <c r="J6" s="204" t="s">
+      <c r="J6" s="223" t="s">
         <v>255</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="2:11" ht="48.75" thickBot="1">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="29"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="223"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="235" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="29"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="236"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="2:11" ht="108.75" thickBot="1">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="204" t="s">
+      <c r="H9" s="223" t="s">
         <v>253</v>
       </c>
-      <c r="I9" s="203" t="s">
+      <c r="I9" s="225" t="s">
         <v>252</v>
       </c>
-      <c r="J9" s="213" t="s">
+      <c r="J9" s="238" t="s">
         <v>252</v>
       </c>
-      <c r="K9" s="29"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="2:11" ht="84.75" thickBot="1">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="204"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="29"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="233" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="233"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="202" t="s">
+      <c r="B14" s="234" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="234"/>
+      <c r="H14" s="234"/>
+      <c r="I14" s="234"/>
+      <c r="J14" s="234"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1">
-      <c r="B15" s="200" t="s">
+      <c r="B15" s="232" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="232"/>
+      <c r="G15" s="232"/>
+      <c r="H15" s="232"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="232"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1">
-      <c r="B16" s="194" t="s">
+      <c r="B16" s="226" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="226"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="226"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="194" t="s">
+      <c r="B17" s="226" t="s">
         <v>284</v>
       </c>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="226"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="226" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="226"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="226"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="232" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B8:J8"/>
@@ -5903,22 +5967,13 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5931,131 +5986,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
     </row>
     <row r="5" spans="1:1" ht="15.75">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75">
-      <c r="A19" s="10"/>
+      <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:1" ht="15.75">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75">
-      <c r="A32" s="10"/>
+      <c r="A32" s="14"/>
     </row>
     <row r="33" spans="1:1" ht="15.75">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="16" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6066,7 +6121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6081,176 +6136,176 @@
     <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="12" thickBot="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="156" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="154" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="119" t="s">
         <v>415</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="54" t="s">
         <v>335</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="55" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12" thickBot="1">
-      <c r="A3" s="138"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="104" t="s">
+      <c r="A3" s="157"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="120" t="s">
         <v>417</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="55" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57" thickBot="1">
-      <c r="A4" s="138"/>
-      <c r="B4" s="142" t="s">
+      <c r="A4" s="157"/>
+      <c r="B4" s="161" t="s">
         <v>653</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="121" t="s">
         <v>415</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="98" t="s">
         <v>664</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="99" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A5" s="138"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="106" t="s">
+      <c r="A5" s="157"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="122" t="s">
         <v>417</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="98" t="s">
         <v>665</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="99" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="78.75" customHeight="1" thickBot="1">
-      <c r="A6" s="138"/>
-      <c r="B6" s="107" t="s">
+      <c r="A6" s="157"/>
+      <c r="B6" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="124" t="s">
         <v>659</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A7" s="138"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="110" t="s">
+      <c r="A7" s="157"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="54" t="s">
         <v>404</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="55" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A8" s="138"/>
-      <c r="B8" s="144" t="s">
+      <c r="A8" s="157"/>
+      <c r="B8" s="163" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="127" t="s">
         <v>660</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="55" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A9" s="139"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="112" t="s">
+      <c r="A9" s="158"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="128" t="s">
         <v>680</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="93" t="s">
         <v>690</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="115" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="159" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="130" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="129"/>
+      <c r="D10" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A11" s="141"/>
-      <c r="B11" s="114" t="s">
+      <c r="A11" s="160"/>
+      <c r="B11" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="129"/>
+      <c r="D11" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6267,7 +6322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6284,1128 +6339,1132 @@
     <col min="3" max="4" width="24.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="55.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="45.75" thickBot="1">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="165" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="120" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="12" thickBot="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="135" t="s">
+      <c r="A3" s="165"/>
+      <c r="B3" s="154" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="43" t="s">
+      <c r="D3" s="134"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="12" thickBot="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="104" t="s">
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="12" thickBot="1">
-      <c r="A5" s="157"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="104" t="s">
+      <c r="A5" s="165"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="43" t="s">
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="45.75" thickBot="1">
-      <c r="A6" s="157"/>
-      <c r="B6" s="117" t="s">
+      <c r="A6" s="165"/>
+      <c r="B6" s="135" t="s">
         <v>685</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="120"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="54" t="s">
         <v>689</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1">
-      <c r="A7" s="157"/>
-      <c r="B7" s="104" t="s">
+      <c r="A7" s="165"/>
+      <c r="B7" s="120" t="s">
         <v>432</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="43" t="s">
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="68.25" thickBot="1">
-      <c r="A8" s="157"/>
-      <c r="B8" s="117" t="s">
+      <c r="A8" s="165"/>
+      <c r="B8" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="43" t="s">
+      <c r="C8" s="120"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="54" t="s">
         <v>433</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="55" t="s">
         <v>434</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="79.5" thickBot="1">
-      <c r="A9" s="157"/>
-      <c r="B9" s="117" t="s">
+      <c r="A9" s="165"/>
+      <c r="B9" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="43" t="s">
+      <c r="C9" s="120"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="23.25" thickBot="1">
-      <c r="A10" s="157"/>
-      <c r="B10" s="104" t="s">
+      <c r="A10" s="165"/>
+      <c r="B10" s="120" t="s">
         <v>437</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="43" t="s">
+      <c r="C10" s="120"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="23.25" thickBot="1">
-      <c r="A11" s="157"/>
-      <c r="B11" s="110" t="s">
+      <c r="A11" s="165"/>
+      <c r="B11" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="43" t="s">
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="12" thickBot="1">
-      <c r="A12" s="157"/>
-      <c r="B12" s="149" t="s">
+      <c r="A12" s="165"/>
+      <c r="B12" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="154" t="s">
         <v>439</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="43" t="s">
+      <c r="E12" s="134"/>
+      <c r="F12" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="12" thickBot="1">
-      <c r="A13" s="157"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="104" t="s">
+      <c r="A13" s="165"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="110"/>
-      <c r="F13" s="43" t="s">
+      <c r="E13" s="126"/>
+      <c r="F13" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="12" thickBot="1">
-      <c r="A14" s="157"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="104" t="s">
+      <c r="A14" s="165"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="126"/>
+      <c r="F14" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="12" thickBot="1">
-      <c r="A15" s="157"/>
-      <c r="B15" s="152" t="s">
+      <c r="A15" s="165"/>
+      <c r="B15" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="171" t="s">
         <v>440</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="E15" s="106"/>
-      <c r="F15" s="43" t="s">
+      <c r="E15" s="134"/>
+      <c r="F15" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="12" thickBot="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="104" t="s">
+      <c r="A16" s="165"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="43" t="s">
+      <c r="E16" s="126"/>
+      <c r="F16" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:17" ht="12" thickBot="1">
-      <c r="A17" s="157"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="104" t="s">
+      <c r="A17" s="165"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="126"/>
+      <c r="F17" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:17" ht="12" thickBot="1">
-      <c r="A18" s="157"/>
-      <c r="B18" s="152" t="s">
+      <c r="A18" s="165"/>
+      <c r="B18" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="120" t="s">
         <v>441</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="43" t="s">
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="54" t="s">
         <v>345</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="55" t="s">
         <v>442</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:17" ht="12" thickBot="1">
-      <c r="A19" s="157"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="104" t="s">
+      <c r="A19" s="165"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="120" t="s">
         <v>443</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="43" t="s">
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="55" t="s">
         <v>442</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:17" ht="12" thickBot="1">
-      <c r="A20" s="157"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="110" t="s">
+      <c r="A20" s="165"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="43" t="s">
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="55" t="s">
         <v>442</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A21" s="157"/>
-      <c r="B21" s="110" t="s">
+      <c r="A21" s="165"/>
+      <c r="B21" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="43" t="s">
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:17" ht="12" thickBot="1">
-      <c r="A22" s="157"/>
-      <c r="B22" s="104" t="s">
+      <c r="A22" s="165"/>
+      <c r="B22" s="120" t="s">
         <v>444</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="43" t="s">
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="55" t="s">
         <v>445</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A23" s="157"/>
-      <c r="B23" s="119" t="s">
+      <c r="A23" s="165"/>
+      <c r="B23" s="137" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="43" t="s">
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="54" t="s">
         <v>350</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A24" s="157"/>
-      <c r="B24" s="119" t="s">
+      <c r="A24" s="165"/>
+      <c r="B24" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="43" t="s">
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="6"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:17" ht="45.75" thickBot="1">
-      <c r="A25" s="157"/>
-      <c r="B25" s="110" t="s">
+      <c r="A25" s="165"/>
+      <c r="B25" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="43" t="s">
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A26" s="157"/>
-      <c r="B26" s="119" t="s">
+      <c r="A26" s="165"/>
+      <c r="B26" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="117"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="43" t="s">
+      <c r="C26" s="135"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" ht="12" thickBot="1">
-      <c r="A27" s="157"/>
-      <c r="B27" s="149" t="s">
+      <c r="A27" s="165"/>
+      <c r="B27" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="120" t="s">
         <v>415</v>
       </c>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="43" t="s">
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="54" t="s">
         <v>352</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:17" ht="12" thickBot="1">
-      <c r="A28" s="157"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="120" t="s">
+      <c r="A28" s="165"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="138" t="s">
         <v>417</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="43" t="s">
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:17" ht="34.5" thickBot="1">
-      <c r="A29" s="157"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="146" t="s">
+      <c r="A29" s="165"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="178" t="s">
         <v>448</v>
       </c>
-      <c r="D29" s="117" t="s">
+      <c r="D29" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="43" t="s">
+      <c r="E29" s="126"/>
+      <c r="F29" s="54" t="s">
         <v>354</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="104" t="s">
+      <c r="A30" s="165"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="E30" s="110"/>
-      <c r="F30" s="43" t="s">
+      <c r="E30" s="126"/>
+      <c r="F30" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:17" ht="12" thickBot="1">
-      <c r="A31" s="157"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="104" t="s">
+      <c r="A31" s="165"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="180"/>
+      <c r="D31" s="120" t="s">
         <v>451</v>
       </c>
-      <c r="E31" s="110"/>
-      <c r="F31" s="43" t="s">
+      <c r="E31" s="126"/>
+      <c r="F31" s="54" t="s">
         <v>356</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="60" t="s">
         <v>452</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A32" s="157"/>
-      <c r="B32" s="149" t="s">
+      <c r="A32" s="165"/>
+      <c r="B32" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="154" t="s">
         <v>453</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="120" t="s">
         <v>415</v>
       </c>
-      <c r="E32" s="110"/>
-      <c r="F32" s="43" t="s">
+      <c r="E32" s="126"/>
+      <c r="F32" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="23.25" thickBot="1">
-      <c r="A33" s="157"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="120" t="s">
+      <c r="A33" s="165"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="138" t="s">
         <v>417</v>
       </c>
-      <c r="E33" s="110"/>
-      <c r="F33" s="43" t="s">
+      <c r="E33" s="126"/>
+      <c r="F33" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A34" s="157"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="146" t="s">
+      <c r="A34" s="165"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="178" t="s">
         <v>448</v>
       </c>
-      <c r="E34" s="110" t="s">
+      <c r="E34" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="G34" s="44" t="s">
+      <c r="G34" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A35" s="157"/>
-      <c r="B35" s="150"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="104" t="s">
+      <c r="A35" s="165"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="54" t="s">
         <v>455</v>
       </c>
-      <c r="G35" s="44" t="s">
+      <c r="G35" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A36" s="157"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="104" t="s">
+      <c r="A36" s="165"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="120" t="s">
         <v>451</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="55" t="s">
         <v>452</v>
       </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A37" s="157"/>
-      <c r="B37" s="117" t="s">
+      <c r="A37" s="165"/>
+      <c r="B37" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="39" t="s">
+      <c r="C37" s="126"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A38" s="157"/>
-      <c r="B38" s="135" t="s">
+      <c r="A38" s="165"/>
+      <c r="B38" s="154" t="s">
         <v>457</v>
       </c>
-      <c r="C38" s="135" t="s">
+      <c r="C38" s="154" t="s">
         <v>458</v>
       </c>
-      <c r="D38" s="122" t="s">
+      <c r="D38" s="140" t="s">
         <v>637</v>
       </c>
-      <c r="E38" s="106"/>
-      <c r="F38" s="50" t="s">
+      <c r="E38" s="122"/>
+      <c r="F38" s="100" t="s">
         <v>676</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="99" t="s">
         <v>639</v>
       </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="23.25" thickBot="1">
-      <c r="A39" s="157"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="122" t="s">
+      <c r="A39" s="165"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="140" t="s">
         <v>656</v>
       </c>
-      <c r="E39" s="106"/>
-      <c r="F39" s="46" t="s">
+      <c r="E39" s="122"/>
+      <c r="F39" s="98" t="s">
         <v>640</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="99" t="s">
         <v>655</v>
       </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="157"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="120" t="s">
+      <c r="A40" s="165"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="138" t="s">
         <v>459</v>
       </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="43" t="s">
+      <c r="E40" s="120"/>
+      <c r="F40" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G40" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="157"/>
-      <c r="B41" s="157"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="120" t="s">
+      <c r="A41" s="165"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="138" t="s">
         <v>460</v>
       </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="43" t="s">
+      <c r="E41" s="120"/>
+      <c r="F41" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="G41" s="44" t="s">
+      <c r="G41" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="157"/>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="110" t="s">
+      <c r="A42" s="165"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="104"/>
-      <c r="F42" s="43" t="s">
+      <c r="E42" s="120"/>
+      <c r="F42" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="55" t="s">
         <v>461</v>
       </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="157"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="104" t="s">
+      <c r="A43" s="165"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="120" t="s">
         <v>462</v>
       </c>
-      <c r="E43" s="104"/>
-      <c r="F43" s="43" t="s">
+      <c r="E43" s="120"/>
+      <c r="F43" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="G43" s="44" t="s">
+      <c r="G43" s="55" t="s">
         <v>442</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="23.25" thickBot="1">
-      <c r="A44" s="157"/>
-      <c r="B44" s="157"/>
-      <c r="C44" s="157"/>
-      <c r="D44" s="117" t="s">
+      <c r="A44" s="165"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="104"/>
-      <c r="F44" s="43" t="s">
+      <c r="E44" s="120"/>
+      <c r="F44" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="G44" s="44" t="s">
+      <c r="G44" s="55" t="s">
         <v>442</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="157"/>
-      <c r="B45" s="157"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="110" t="s">
+      <c r="A45" s="165"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="104"/>
-      <c r="F45" s="43" t="s">
+      <c r="E45" s="120"/>
+      <c r="F45" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="G45" s="44" t="s">
+      <c r="G45" s="55" t="s">
         <v>442</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="157"/>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="110" t="s">
+      <c r="A46" s="165"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="110"/>
-      <c r="F46" s="82" t="s">
+      <c r="E46" s="126"/>
+      <c r="F46" s="93" t="s">
         <v>641</v>
       </c>
-      <c r="G46" s="44" t="s">
+      <c r="G46" s="55" t="s">
         <v>461</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="23.25" thickBot="1">
-      <c r="A47" s="157"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="110" t="s">
+      <c r="A47" s="165"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="110"/>
-      <c r="F47" s="43" t="s">
+      <c r="E47" s="126"/>
+      <c r="F47" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="G47" s="44" t="s">
+      <c r="G47" s="55" t="s">
         <v>442</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A48" s="157"/>
-      <c r="B48" s="104" t="s">
+      <c r="A48" s="165"/>
+      <c r="B48" s="120" t="s">
         <v>463</v>
       </c>
-      <c r="C48" s="117"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="43" t="s">
+      <c r="C48" s="135"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="54" t="s">
         <v>464</v>
       </c>
-      <c r="G48" s="44" t="s">
+      <c r="G48" s="55" t="s">
         <v>442</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A49" s="157"/>
-      <c r="B49" s="123" t="s">
+      <c r="A49" s="165"/>
+      <c r="B49" s="141" t="s">
         <v>465</v>
       </c>
-      <c r="C49" s="124"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="46" t="s">
+      <c r="C49" s="142"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="G49" s="51" t="s">
+      <c r="G49" s="62" t="s">
         <v>442</v>
       </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" ht="57" thickBot="1">
-      <c r="A50" s="157"/>
-      <c r="B50" s="154" t="s">
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9" ht="68.25" thickBot="1">
+      <c r="A50" s="165"/>
+      <c r="B50" s="182" t="s">
         <v>467</v>
       </c>
-      <c r="C50" s="120" t="s">
+      <c r="C50" s="138" t="s">
         <v>468</v>
       </c>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="46" t="s">
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="57" t="s">
         <v>469</v>
       </c>
-      <c r="G50" s="44" t="s">
+      <c r="G50" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-    </row>
-    <row r="51" spans="1:9" ht="79.5" thickBot="1">
-      <c r="A51" s="157"/>
-      <c r="B51" s="155"/>
-      <c r="C51" s="146" t="s">
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A51" s="165"/>
+      <c r="B51" s="183"/>
+      <c r="C51" s="178" t="s">
         <v>470</v>
       </c>
-      <c r="D51" s="104" t="s">
+      <c r="D51" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="E51" s="110"/>
-      <c r="F51" s="39" t="s">
+      <c r="E51" s="126"/>
+      <c r="F51" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="G51" s="44" t="s">
+      <c r="G51" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A52" s="157"/>
-      <c r="B52" s="155"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="104" t="s">
+      <c r="A52" s="165"/>
+      <c r="B52" s="183"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="E52" s="104"/>
-      <c r="F52" s="39" t="s">
+      <c r="E52" s="120"/>
+      <c r="F52" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="G52" s="44" t="s">
+      <c r="G52" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" ht="23.25" thickBot="1">
-      <c r="A53" s="157"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="104" t="s">
+      <c r="A53" s="165"/>
+      <c r="B53" s="183"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="E53" s="104"/>
-      <c r="F53" s="39" t="s">
+      <c r="E53" s="120"/>
+      <c r="F53" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="G53" s="44" t="s">
+      <c r="G53" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A54" s="157"/>
-      <c r="B54" s="156"/>
-      <c r="C54" s="153"/>
-      <c r="D54" s="104" t="s">
+      <c r="A54" s="165"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="120" t="s">
         <v>472</v>
       </c>
-      <c r="E54" s="104"/>
-      <c r="F54" s="39" t="s">
+      <c r="E54" s="120"/>
+      <c r="F54" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="G54" s="44" t="s">
+      <c r="G54" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
     </row>
     <row r="55" spans="1:9" ht="23.25" thickBot="1">
-      <c r="A55" s="157"/>
-      <c r="B55" s="125" t="s">
+      <c r="A55" s="165"/>
+      <c r="B55" s="143" t="s">
         <v>474</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="46" t="s">
+      <c r="C55" s="134"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" ht="68.25" thickBot="1">
-      <c r="A56" s="157"/>
-      <c r="B56" s="103" t="s">
+      <c r="A56" s="165"/>
+      <c r="B56" s="119" t="s">
         <v>476</v>
       </c>
-      <c r="C56" s="117"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="46" t="s">
+      <c r="C56" s="135"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="G56" s="44" t="s">
+      <c r="G56" s="55" t="s">
         <v>477</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9" ht="45.75" thickBot="1">
-      <c r="A57" s="157"/>
-      <c r="B57" s="119" t="s">
+      <c r="A57" s="165"/>
+      <c r="B57" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="46" t="s">
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="G57" s="51" t="s">
+      <c r="G57" s="62" t="s">
         <v>479</v>
       </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A58" s="157"/>
-      <c r="B58" s="124" t="s">
+      <c r="A58" s="165"/>
+      <c r="B58" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="46" t="s">
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="G58" s="51" t="s">
+      <c r="G58" s="62" t="s">
         <v>481</v>
       </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" ht="23.25" thickBot="1">
-      <c r="A59" s="157"/>
-      <c r="B59" s="104" t="s">
+      <c r="A59" s="165"/>
+      <c r="B59" s="120" t="s">
         <v>482</v>
       </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="46" t="s">
+      <c r="C59" s="137"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="57" t="s">
         <v>406</v>
       </c>
-      <c r="G59" s="51" t="s">
+      <c r="G59" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A60" s="157"/>
-      <c r="B60" s="104" t="s">
+      <c r="A60" s="165"/>
+      <c r="B60" s="120" t="s">
         <v>472</v>
       </c>
-      <c r="C60" s="119"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="46" t="s">
+      <c r="C60" s="137"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="G60" s="51" t="s">
+      <c r="G60" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="157"/>
-      <c r="B61" s="149" t="s">
+      <c r="A61" s="165"/>
+      <c r="B61" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="149"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="45" t="s">
+      <c r="C61" s="166"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="56" t="s">
         <v>483</v>
       </c>
-      <c r="G61" s="158" t="s">
+      <c r="G61" s="174" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="157"/>
-      <c r="B62" s="150"/>
-      <c r="C62" s="150"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
-      <c r="F62" s="45" t="s">
+      <c r="A62" s="165"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="165"/>
+      <c r="F62" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="G62" s="159"/>
+      <c r="G62" s="175"/>
     </row>
     <row r="63" spans="1:9" ht="23.25" thickBot="1">
-      <c r="A63" s="136"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="151"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="43" t="s">
+      <c r="A63" s="155"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="G63" s="160"/>
+      <c r="G63" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:A63"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="C29:C31"/>
@@ -7415,6 +7474,18 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="C38:C47"/>
     <mergeCell ref="B38:B47"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="A2:A63"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -7427,7 +7498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7439,387 +7510,387 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60" style="8" customWidth="1"/>
+    <col min="5" max="5" width="60" style="12" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="52" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="185" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="148" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="52" t="s">
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="63" t="s">
         <v>425</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="60" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57" thickBot="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="164" t="s">
+    <row r="3" spans="1:6" s="11" customFormat="1" ht="57" thickBot="1">
+      <c r="A3" s="186"/>
+      <c r="B3" s="185" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="129" t="s">
         <v>487</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="150"/>
+      <c r="E3" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="55" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="165"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="113" t="s">
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="186"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="129" t="s">
         <v>489</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="151"/>
+      <c r="E4" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="55" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="165"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="113" t="s">
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="186"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="129" t="s">
         <v>490</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="151"/>
+      <c r="E5" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="55" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A6" s="165"/>
-      <c r="B6" s="133" t="s">
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A6" s="186"/>
+      <c r="B6" s="152" t="s">
         <v>685</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="43" t="s">
+      <c r="C6" s="129"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="54" t="s">
         <v>689</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="55" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="68.25" thickBot="1">
-      <c r="A7" s="165"/>
-      <c r="B7" s="133" t="s">
+    <row r="7" spans="1:6" s="11" customFormat="1" ht="68.25" thickBot="1">
+      <c r="A7" s="186"/>
+      <c r="B7" s="152" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="43" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="64" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="106.5" customHeight="1" thickBot="1">
-      <c r="A8" s="165"/>
-      <c r="B8" s="133" t="s">
+    <row r="8" spans="1:6" s="11" customFormat="1" ht="106.5" customHeight="1" thickBot="1">
+      <c r="A8" s="186"/>
+      <c r="B8" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="43" t="s">
+      <c r="C8" s="129"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="54" t="s">
         <v>492</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="55" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A9" s="165"/>
-      <c r="B9" s="132" t="s">
+    <row r="9" spans="1:6" s="11" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A9" s="186"/>
+      <c r="B9" s="151" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="39" t="s">
+      <c r="C9" s="152"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="58" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A10" s="165"/>
-      <c r="B10" s="167" t="s">
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A10" s="186"/>
+      <c r="B10" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="129" t="s">
         <v>415</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="39" t="s">
+      <c r="D10" s="151"/>
+      <c r="E10" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="60" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="114" t="s">
+    <row r="11" spans="1:6" s="11" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A11" s="186"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="130" t="s">
         <v>417</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="39" t="s">
+      <c r="D11" s="151"/>
+      <c r="E11" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="55" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="171" t="s">
+    <row r="12" spans="1:6" s="11" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A12" s="186"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="192" t="s">
         <v>448</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="D12" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="55" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="113" t="s">
+    <row r="13" spans="1:6" s="11" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A13" s="186"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="129" t="s">
         <v>450</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="55" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="113" t="s">
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A14" s="186"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="129" t="s">
         <v>451</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="55" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A15" s="165"/>
-      <c r="B15" s="174" t="s">
+    <row r="15" spans="1:6" s="11" customFormat="1" ht="84.75" customHeight="1" thickBot="1">
+      <c r="A15" s="186"/>
+      <c r="B15" s="195" t="s">
         <v>467</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="130" t="s">
         <v>468</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="46" t="s">
+      <c r="D15" s="151"/>
+      <c r="E15" s="57" t="s">
         <v>469</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="55" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="79.5" thickBot="1">
-      <c r="A16" s="165"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="171" t="s">
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="79.5" thickBot="1">
+      <c r="A16" s="186"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="192" t="s">
         <v>470</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="129" t="s">
         <v>427</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="55" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="34.5" thickBot="1">
-      <c r="A17" s="165"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="113" t="s">
+    <row r="17" spans="1:6" s="11" customFormat="1" ht="34.5" thickBot="1">
+      <c r="A17" s="186"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="129" t="s">
         <v>428</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="55" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A18" s="165"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="113" t="s">
+    <row r="18" spans="1:6" s="11" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A18" s="186"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="129" t="s">
         <v>430</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="55" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A19" s="165"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="113" t="s">
+    <row r="19" spans="1:6" s="11" customFormat="1" ht="36" customHeight="1" thickBot="1">
+      <c r="A19" s="186"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="129" t="s">
         <v>472</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="55" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
-      <c r="B20" s="131" t="s">
+    <row r="20" spans="1:6" s="11" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A20" s="186"/>
+      <c r="B20" s="150" t="s">
         <v>474</v>
       </c>
-      <c r="C20" s="131"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="46" t="s">
+      <c r="C20" s="150"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="F20" s="42"/>
-    </row>
-    <row r="21" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A21" s="165"/>
-      <c r="B21" s="113" t="s">
+      <c r="F20" s="53"/>
+    </row>
+    <row r="21" spans="1:6" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A21" s="186"/>
+      <c r="B21" s="129" t="s">
         <v>476</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="43" t="s">
+      <c r="C21" s="152"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="55" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="42" customHeight="1" thickBot="1">
-      <c r="A22" s="165"/>
-      <c r="B22" s="131" t="s">
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="42" customHeight="1" thickBot="1">
+      <c r="A22" s="186"/>
+      <c r="B22" s="150" t="s">
         <v>482</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="46" t="s">
+      <c r="C22" s="153"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="57" t="s">
         <v>406</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="62" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A23" s="165"/>
-      <c r="B23" s="113" t="s">
+    <row r="23" spans="1:6" s="11" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A23" s="186"/>
+      <c r="B23" s="129" t="s">
         <v>472</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="46" t="s">
+      <c r="C23" s="153"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="62" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
-      <c r="A24" s="165"/>
-      <c r="B24" s="167" t="s">
+      <c r="A24" s="186"/>
+      <c r="B24" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="45" t="s">
+      <c r="C24" s="188"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="56" t="s">
         <v>495</v>
       </c>
-      <c r="F24" s="158" t="s">
+      <c r="F24" s="174" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="165"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="45" t="s">
+      <c r="A25" s="186"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="56" t="s">
         <v>496</v>
       </c>
-      <c r="F25" s="159"/>
+      <c r="F25" s="175"/>
     </row>
     <row r="26" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A26" s="166"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="43" t="s">
+      <c r="A26" s="187"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="F26" s="160"/>
+      <c r="F26" s="176"/>
     </row>
     <row r="27" spans="1:6" ht="45" customHeight="1"/>
   </sheetData>
@@ -7844,7 +7915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -7862,1487 +7933,1515 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="52" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="206" t="s">
         <v>497</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="154" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="181" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="204" t="s">
         <v>498</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="58" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="44" t="s">
+      <c r="A3" s="207"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="55" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="123" t="s">
+      <c r="A4" s="207"/>
+      <c r="B4" s="141" t="s">
         <v>500</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="120" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="46" t="s">
+      <c r="D4" s="120"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="179"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="135" t="s">
+      <c r="A5" s="207"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="154" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="120" t="s">
         <v>415</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="43" t="s">
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="54" t="s">
         <v>335</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="55" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="104" t="s">
+      <c r="A6" s="207"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="120" t="s">
         <v>417</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="43" t="s">
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="55" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="63" customHeight="1">
-      <c r="A7" s="179"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="149" t="s">
+      <c r="A7" s="207"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="181" t="s">
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="204" t="s">
         <v>501</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="58" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="179"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="44" t="s">
+      <c r="A8" s="207"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="55" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A9" s="179"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="149" t="s">
+      <c r="A9" s="207"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="166" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="120" t="s">
         <v>415</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="43" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="55" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A10" s="179"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="120" t="s">
+      <c r="A10" s="207"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="138" t="s">
         <v>417</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="43" t="s">
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="55" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A11" s="179"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="146" t="s">
+      <c r="A11" s="207"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="178" t="s">
         <v>448</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="43" t="s">
+      <c r="F11" s="126"/>
+      <c r="G11" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="55" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="A12" s="179"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="135" t="s">
+      <c r="A12" s="207"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="154" t="s">
         <v>450</v>
       </c>
-      <c r="F12" s="149"/>
-      <c r="G12" s="181" t="s">
+      <c r="F12" s="166"/>
+      <c r="G12" s="204" t="s">
         <v>503</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="58" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A13" s="179"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="44" t="s">
+      <c r="A13" s="207"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="55" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A14" s="179"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="104" t="s">
+      <c r="A14" s="207"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="120" t="s">
         <v>451</v>
       </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="126"/>
+      <c r="G14" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="55" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A15" s="179"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="104" t="s">
+      <c r="A15" s="207"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="120" t="s">
         <v>504</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="43" t="s">
+      <c r="D15" s="135"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="54" t="s">
         <v>505</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="55" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A16" s="179"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123" t="s">
+      <c r="A16" s="207"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141" t="s">
         <v>506</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="43" t="s">
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="55" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A17" s="179"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="121" t="s">
+      <c r="A17" s="207"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="146" t="s">
+      <c r="D17" s="178" t="s">
         <v>507</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="120" t="s">
         <v>508</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="43" t="s">
+      <c r="F17" s="120"/>
+      <c r="G17" s="54" t="s">
         <v>509</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="55" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A18" s="179"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="110" t="s">
+      <c r="A18" s="207"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="43" t="s">
+      <c r="F18" s="120"/>
+      <c r="G18" s="54" t="s">
         <v>510</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="55" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A19" s="179"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="104" t="s">
+      <c r="A19" s="207"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="120" t="s">
         <v>512</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="43" t="s">
+      <c r="F19" s="120"/>
+      <c r="G19" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="55" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A20" s="179"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="110" t="s">
+      <c r="A20" s="207"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="43" t="s">
+      <c r="F20" s="120"/>
+      <c r="G20" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="55" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A21" s="179"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="104" t="s">
+      <c r="A21" s="207"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="120" t="s">
         <v>515</v>
       </c>
-      <c r="F21" s="104"/>
-      <c r="G21" s="43" t="s">
+      <c r="F21" s="120"/>
+      <c r="G21" s="54" t="s">
         <v>516</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="55" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="110" t="s">
+      <c r="A22" s="207"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="104"/>
-      <c r="G22" s="43" t="s">
+      <c r="F22" s="120"/>
+      <c r="G22" s="54" t="s">
         <v>517</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="55" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A23" s="179"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="104" t="s">
+      <c r="A23" s="207"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="120" t="s">
         <v>518</v>
       </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="43" t="s">
+      <c r="F23" s="120"/>
+      <c r="G23" s="54" t="s">
         <v>519</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="55" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="110" t="s">
+      <c r="A24" s="207"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="104"/>
-      <c r="G24" s="43" t="s">
+      <c r="F24" s="120"/>
+      <c r="G24" s="54" t="s">
         <v>520</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="55" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="179"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="184" t="s">
+      <c r="A25" s="207"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="200" t="s">
         <v>521</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="120" t="s">
         <v>522</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="43" t="s">
+      <c r="F25" s="120"/>
+      <c r="G25" s="54" t="s">
         <v>379</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="55" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="110" t="s">
+      <c r="A26" s="207"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="104"/>
-      <c r="G26" s="43" t="s">
+      <c r="F26" s="120"/>
+      <c r="G26" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="55" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A27" s="179"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="149" t="s">
+      <c r="A27" s="207"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="54" t="s">
         <v>525</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="55" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A28" s="179"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="104" t="s">
+      <c r="A28" s="207"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="54" t="s">
         <v>526</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="55" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A29" s="179"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="104" t="s">
+      <c r="A29" s="207"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="55" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A30" s="179"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="146" t="s">
+      <c r="A30" s="207"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="178" t="s">
         <v>528</v>
       </c>
-      <c r="E30" s="104" t="s">
+      <c r="E30" s="120" t="s">
         <v>529</v>
       </c>
-      <c r="F30" s="104"/>
-      <c r="G30" s="43" t="s">
+      <c r="F30" s="120"/>
+      <c r="G30" s="54" t="s">
         <v>530</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="55" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A31" s="179"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="110" t="s">
+      <c r="A31" s="207"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="126" t="s">
         <v>397</v>
       </c>
-      <c r="F31" s="104"/>
-      <c r="G31" s="43" t="s">
+      <c r="F31" s="120"/>
+      <c r="G31" s="54" t="s">
         <v>531</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="55" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A32" s="179"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="104" t="s">
+      <c r="A32" s="207"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="120" t="s">
         <v>533</v>
       </c>
-      <c r="F32" s="104"/>
-      <c r="G32" s="43" t="s">
+      <c r="F32" s="120"/>
+      <c r="G32" s="54" t="s">
         <v>534</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="55" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A33" s="179"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="110" t="s">
+      <c r="A33" s="207"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="126" t="s">
         <v>398</v>
       </c>
-      <c r="F33" s="104"/>
-      <c r="G33" s="43" t="s">
+      <c r="F33" s="120"/>
+      <c r="G33" s="54" t="s">
         <v>535</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="55" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A34" s="179"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="104" t="s">
+      <c r="A34" s="207"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="120" t="s">
         <v>536</v>
       </c>
-      <c r="F34" s="104"/>
-      <c r="G34" s="43" t="s">
+      <c r="F34" s="120"/>
+      <c r="G34" s="54" t="s">
         <v>537</v>
       </c>
-      <c r="H34" s="44" t="s">
+      <c r="H34" s="55" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A35" s="179"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="110" t="s">
+      <c r="A35" s="207"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="126" t="s">
         <v>399</v>
       </c>
-      <c r="F35" s="104"/>
-      <c r="G35" s="43" t="s">
+      <c r="F35" s="120"/>
+      <c r="G35" s="54" t="s">
         <v>538</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="55" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A36" s="179"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="104" t="s">
+      <c r="A36" s="207"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="120" t="s">
         <v>539</v>
       </c>
-      <c r="F36" s="104"/>
-      <c r="G36" s="43" t="s">
+      <c r="F36" s="120"/>
+      <c r="G36" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="55" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A37" s="179"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="110" t="s">
+      <c r="A37" s="207"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="126" t="s">
         <v>400</v>
       </c>
-      <c r="F37" s="104"/>
-      <c r="G37" s="43" t="s">
+      <c r="F37" s="120"/>
+      <c r="G37" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="H37" s="55" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A38" s="179"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="146" t="s">
+      <c r="A38" s="207"/>
+      <c r="B38" s="146"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="178" t="s">
         <v>542</v>
       </c>
-      <c r="E38" s="104" t="s">
+      <c r="E38" s="120" t="s">
         <v>522</v>
       </c>
-      <c r="F38" s="104"/>
-      <c r="G38" s="43" t="s">
+      <c r="F38" s="120"/>
+      <c r="G38" s="54" t="s">
         <v>380</v>
       </c>
-      <c r="H38" s="44" t="s">
+      <c r="H38" s="55" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A39" s="179"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="110" t="s">
+      <c r="A39" s="207"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="104"/>
-      <c r="G39" s="43" t="s">
+      <c r="F39" s="120"/>
+      <c r="G39" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="55" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A40" s="179"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="185" t="s">
+      <c r="A40" s="207"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="201" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="104" t="s">
+      <c r="F40" s="120" t="s">
         <v>506</v>
       </c>
-      <c r="G40" s="43" t="s">
+      <c r="G40" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="H40" s="55" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A41" s="179"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="104" t="s">
+      <c r="A41" s="207"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="120" t="s">
         <v>543</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="54" t="s">
         <v>544</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="55" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A42" s="179"/>
-      <c r="B42" s="127"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="104" t="s">
+      <c r="A42" s="207"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="203"/>
+      <c r="F42" s="120" t="s">
         <v>545</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="55" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A43" s="179"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="146" t="s">
+      <c r="A43" s="207"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="178" t="s">
         <v>546</v>
       </c>
-      <c r="E43" s="104" t="s">
+      <c r="E43" s="120" t="s">
         <v>547</v>
       </c>
-      <c r="F43" s="104"/>
-      <c r="G43" s="43" t="s">
+      <c r="F43" s="120"/>
+      <c r="G43" s="54" t="s">
         <v>548</v>
       </c>
-      <c r="H43" s="44" t="s">
+      <c r="H43" s="55" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A44" s="179"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="104" t="s">
+      <c r="A44" s="207"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="120" t="s">
         <v>549</v>
       </c>
-      <c r="F44" s="104"/>
-      <c r="G44" s="43" t="s">
+      <c r="F44" s="120"/>
+      <c r="G44" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="55" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A45" s="179"/>
-      <c r="B45" s="127"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="135" t="s">
+      <c r="A45" s="207"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="179"/>
+      <c r="E45" s="154" t="s">
         <v>551</v>
       </c>
-      <c r="F45" s="104" t="s">
+      <c r="F45" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="54" t="s">
         <v>552</v>
       </c>
-      <c r="H45" s="44" t="s">
+      <c r="H45" s="55" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A46" s="179"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="104" t="s">
+      <c r="A46" s="207"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="54" t="s">
         <v>553</v>
       </c>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="55" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A47" s="179"/>
-      <c r="B47" s="127"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="104" t="s">
+      <c r="A47" s="207"/>
+      <c r="B47" s="146"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="179"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="54" t="s">
         <v>554</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="55" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A48" s="179"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="104" t="s">
+      <c r="A48" s="207"/>
+      <c r="B48" s="146"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="120" t="s">
         <v>472</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="54" t="s">
         <v>555</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="H48" s="55" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A49" s="179"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="135" t="s">
+      <c r="A49" s="207"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="179"/>
+      <c r="E49" s="154" t="s">
         <v>556</v>
       </c>
-      <c r="F49" s="104" t="s">
+      <c r="F49" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="54" t="s">
         <v>557</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="H49" s="55" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A50" s="179"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="104" t="s">
+      <c r="A50" s="207"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="54" t="s">
         <v>558</v>
       </c>
-      <c r="H50" s="44" t="s">
+      <c r="H50" s="55" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A51" s="179"/>
-      <c r="B51" s="127"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="104" t="s">
+      <c r="A51" s="207"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="179"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="54" t="s">
         <v>559</v>
       </c>
-      <c r="H51" s="44" t="s">
+      <c r="H51" s="55" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A52" s="179"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="104" t="s">
+      <c r="A52" s="207"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="179"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="120" t="s">
         <v>472</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="G52" s="54" t="s">
         <v>560</v>
       </c>
-      <c r="H52" s="44" t="s">
+      <c r="H52" s="55" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A53" s="179"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="147"/>
-      <c r="E53" s="104" t="s">
+      <c r="A53" s="207"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="179"/>
+      <c r="E53" s="120" t="s">
         <v>561</v>
       </c>
-      <c r="F53" s="110"/>
-      <c r="G53" s="43" t="s">
+      <c r="F53" s="126"/>
+      <c r="G53" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="H53" s="44" t="s">
+      <c r="H53" s="55" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A54" s="179"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="104" t="s">
+      <c r="A54" s="207"/>
+      <c r="B54" s="146"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="179"/>
+      <c r="E54" s="120" t="s">
         <v>563</v>
       </c>
-      <c r="F54" s="110"/>
-      <c r="G54" s="43" t="s">
+      <c r="F54" s="126"/>
+      <c r="G54" s="54" t="s">
         <v>564</v>
       </c>
-      <c r="H54" s="44" t="s">
+      <c r="H54" s="55" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A55" s="179"/>
-      <c r="B55" s="127"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="104" t="s">
+      <c r="A55" s="207"/>
+      <c r="B55" s="146"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="179"/>
+      <c r="E55" s="120" t="s">
         <v>565</v>
       </c>
-      <c r="F55" s="110"/>
-      <c r="G55" s="43" t="s">
+      <c r="F55" s="126"/>
+      <c r="G55" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="H55" s="44" t="s">
+      <c r="H55" s="55" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A56" s="179"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="147"/>
-      <c r="E56" s="104" t="s">
+      <c r="A56" s="207"/>
+      <c r="B56" s="146"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="179"/>
+      <c r="E56" s="120" t="s">
         <v>567</v>
       </c>
-      <c r="F56" s="110"/>
-      <c r="G56" s="43" t="s">
+      <c r="F56" s="126"/>
+      <c r="G56" s="54" t="s">
         <v>384</v>
       </c>
-      <c r="H56" s="44" t="s">
+      <c r="H56" s="55" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A57" s="179"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="148"/>
-      <c r="E57" s="104" t="s">
+      <c r="A57" s="207"/>
+      <c r="B57" s="146"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="180"/>
+      <c r="E57" s="120" t="s">
         <v>568</v>
       </c>
-      <c r="F57" s="104"/>
-      <c r="G57" s="43" t="s">
+      <c r="F57" s="120"/>
+      <c r="G57" s="54" t="s">
         <v>569</v>
       </c>
-      <c r="H57" s="44" t="s">
+      <c r="H57" s="55" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A58" s="179"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="146" t="s">
+      <c r="A58" s="207"/>
+      <c r="B58" s="146"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="178" t="s">
         <v>401</v>
       </c>
-      <c r="E58" s="104" t="s">
+      <c r="E58" s="120" t="s">
         <v>547</v>
       </c>
-      <c r="F58" s="104"/>
-      <c r="G58" s="43" t="s">
+      <c r="F58" s="120"/>
+      <c r="G58" s="54" t="s">
         <v>570</v>
       </c>
-      <c r="H58" s="44" t="s">
+      <c r="H58" s="55" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A59" s="179"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="123" t="s">
+      <c r="A59" s="207"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="141" t="s">
         <v>549</v>
       </c>
-      <c r="F59" s="104"/>
-      <c r="G59" s="43" t="s">
+      <c r="F59" s="120"/>
+      <c r="G59" s="54" t="s">
         <v>571</v>
       </c>
-      <c r="H59" s="44" t="s">
+      <c r="H59" s="55" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A60" s="179"/>
-      <c r="B60" s="127"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="115" t="s">
+      <c r="A60" s="207"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="131" t="s">
         <v>572</v>
       </c>
-      <c r="F60" s="104" t="s">
+      <c r="F60" s="120" t="s">
         <v>506</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="54" t="s">
         <v>573</v>
       </c>
-      <c r="H60" s="44" t="s">
+      <c r="H60" s="55" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A61" s="179"/>
-      <c r="B61" s="127"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="104" t="s">
+      <c r="A61" s="207"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="120" t="s">
         <v>543</v>
       </c>
-      <c r="G61" s="43" t="s">
+      <c r="G61" s="54" t="s">
         <v>574</v>
       </c>
-      <c r="H61" s="44" t="s">
+      <c r="H61" s="55" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A62" s="179"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="111"/>
-      <c r="F62" s="104" t="s">
+      <c r="A62" s="207"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="179"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="120" t="s">
         <v>545</v>
       </c>
-      <c r="G62" s="43" t="s">
+      <c r="G62" s="54" t="s">
         <v>575</v>
       </c>
-      <c r="H62" s="44" t="s">
+      <c r="H62" s="55" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A63" s="179"/>
-      <c r="B63" s="127"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="116" t="s">
+      <c r="A63" s="207"/>
+      <c r="B63" s="146"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="179"/>
+      <c r="E63" s="133" t="s">
         <v>576</v>
       </c>
-      <c r="F63" s="104" t="s">
+      <c r="F63" s="120" t="s">
         <v>506</v>
       </c>
-      <c r="G63" s="43" t="s">
+      <c r="G63" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="H63" s="44" t="s">
+      <c r="H63" s="55" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A64" s="179"/>
-      <c r="B64" s="127"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="116"/>
-      <c r="F64" s="104" t="s">
+      <c r="A64" s="207"/>
+      <c r="B64" s="146"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="179"/>
+      <c r="E64" s="133"/>
+      <c r="F64" s="120" t="s">
         <v>543</v>
       </c>
-      <c r="G64" s="43" t="s">
+      <c r="G64" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="H64" s="44" t="s">
+      <c r="H64" s="55" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A65" s="179"/>
-      <c r="B65" s="127"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="147"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="104" t="s">
+      <c r="A65" s="207"/>
+      <c r="B65" s="146"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="179"/>
+      <c r="E65" s="132"/>
+      <c r="F65" s="120" t="s">
         <v>545</v>
       </c>
-      <c r="G65" s="43" t="s">
+      <c r="G65" s="54" t="s">
         <v>578</v>
       </c>
-      <c r="H65" s="44" t="s">
+      <c r="H65" s="55" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A66" s="179"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="118"/>
-      <c r="D66" s="147"/>
-      <c r="E66" s="104" t="s">
+      <c r="A66" s="207"/>
+      <c r="B66" s="146"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="179"/>
+      <c r="E66" s="120" t="s">
         <v>579</v>
       </c>
-      <c r="F66" s="104"/>
-      <c r="G66" s="43" t="s">
+      <c r="F66" s="120"/>
+      <c r="G66" s="54" t="s">
         <v>580</v>
       </c>
-      <c r="H66" s="44" t="s">
+      <c r="H66" s="55" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A67" s="179"/>
-      <c r="B67" s="127"/>
-      <c r="C67" s="118"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="104" t="s">
+      <c r="A67" s="207"/>
+      <c r="B67" s="146"/>
+      <c r="C67" s="136"/>
+      <c r="D67" s="180"/>
+      <c r="E67" s="120" t="s">
         <v>581</v>
       </c>
-      <c r="F67" s="104"/>
-      <c r="G67" s="43" t="s">
+      <c r="F67" s="120"/>
+      <c r="G67" s="54" t="s">
         <v>582</v>
       </c>
-      <c r="H67" s="44" t="s">
+      <c r="H67" s="55" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A68" s="179"/>
-      <c r="B68" s="127"/>
-      <c r="C68" s="118"/>
-      <c r="D68" s="146" t="s">
+      <c r="A68" s="207"/>
+      <c r="B68" s="146"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="178" t="s">
         <v>583</v>
       </c>
-      <c r="E68" s="135" t="s">
+      <c r="E68" s="154" t="s">
         <v>584</v>
       </c>
-      <c r="F68" s="104" t="s">
+      <c r="F68" s="120" t="s">
         <v>506</v>
       </c>
-      <c r="G68" s="43" t="s">
+      <c r="G68" s="54" t="s">
         <v>585</v>
       </c>
-      <c r="H68" s="44" t="s">
+      <c r="H68" s="55" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A69" s="179"/>
-      <c r="B69" s="127"/>
-      <c r="C69" s="118"/>
-      <c r="D69" s="147"/>
-      <c r="E69" s="136"/>
-      <c r="F69" s="104" t="s">
+      <c r="A69" s="207"/>
+      <c r="B69" s="146"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="179"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="120" t="s">
         <v>586</v>
       </c>
-      <c r="G69" s="43" t="s">
+      <c r="G69" s="54" t="s">
         <v>587</v>
       </c>
-      <c r="H69" s="44" t="s">
+      <c r="H69" s="55" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A70" s="179"/>
-      <c r="B70" s="127"/>
-      <c r="C70" s="118"/>
-      <c r="D70" s="147"/>
-      <c r="E70" s="149" t="s">
+      <c r="A70" s="207"/>
+      <c r="B70" s="146"/>
+      <c r="C70" s="136"/>
+      <c r="D70" s="179"/>
+      <c r="E70" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="F70" s="104" t="s">
+      <c r="F70" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="G70" s="43" t="s">
+      <c r="G70" s="54" t="s">
         <v>589</v>
       </c>
-      <c r="H70" s="44" t="s">
+      <c r="H70" s="55" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A71" s="179"/>
-      <c r="B71" s="127"/>
-      <c r="C71" s="118"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="150"/>
-      <c r="F71" s="104" t="s">
+      <c r="A71" s="207"/>
+      <c r="B71" s="146"/>
+      <c r="C71" s="136"/>
+      <c r="D71" s="179"/>
+      <c r="E71" s="167"/>
+      <c r="F71" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="G71" s="43" t="s">
+      <c r="G71" s="54" t="s">
         <v>590</v>
       </c>
-      <c r="H71" s="44" t="s">
+      <c r="H71" s="55" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A72" s="179"/>
-      <c r="B72" s="127"/>
-      <c r="C72" s="118"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="150"/>
-      <c r="F72" s="104" t="s">
+      <c r="A72" s="207"/>
+      <c r="B72" s="146"/>
+      <c r="C72" s="136"/>
+      <c r="D72" s="179"/>
+      <c r="E72" s="167"/>
+      <c r="F72" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="G72" s="43" t="s">
+      <c r="G72" s="54" t="s">
         <v>554</v>
       </c>
-      <c r="H72" s="44" t="s">
+      <c r="H72" s="55" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A73" s="179"/>
-      <c r="B73" s="127"/>
-      <c r="C73" s="118"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="151"/>
-      <c r="F73" s="104" t="s">
+      <c r="A73" s="207"/>
+      <c r="B73" s="146"/>
+      <c r="C73" s="136"/>
+      <c r="D73" s="179"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="120" t="s">
         <v>472</v>
       </c>
-      <c r="G73" s="43" t="s">
+      <c r="G73" s="54" t="s">
         <v>555</v>
       </c>
-      <c r="H73" s="44" t="s">
+      <c r="H73" s="55" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A74" s="179"/>
-      <c r="B74" s="127"/>
-      <c r="C74" s="118"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="149" t="s">
+      <c r="A74" s="207"/>
+      <c r="B74" s="146"/>
+      <c r="C74" s="136"/>
+      <c r="D74" s="179"/>
+      <c r="E74" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="F74" s="104" t="s">
+      <c r="F74" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="G74" s="43" t="s">
+      <c r="G74" s="54" t="s">
         <v>591</v>
       </c>
-      <c r="H74" s="44" t="s">
+      <c r="H74" s="55" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A75" s="179"/>
-      <c r="B75" s="127"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="147"/>
-      <c r="E75" s="150"/>
-      <c r="F75" s="104" t="s">
+      <c r="A75" s="207"/>
+      <c r="B75" s="146"/>
+      <c r="C75" s="136"/>
+      <c r="D75" s="179"/>
+      <c r="E75" s="167"/>
+      <c r="F75" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="G75" s="43" t="s">
+      <c r="G75" s="54" t="s">
         <v>592</v>
       </c>
-      <c r="H75" s="44" t="s">
+      <c r="H75" s="55" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A76" s="179"/>
-      <c r="B76" s="127"/>
-      <c r="C76" s="118"/>
-      <c r="D76" s="147"/>
-      <c r="E76" s="150"/>
-      <c r="F76" s="104" t="s">
+      <c r="A76" s="207"/>
+      <c r="B76" s="146"/>
+      <c r="C76" s="136"/>
+      <c r="D76" s="179"/>
+      <c r="E76" s="167"/>
+      <c r="F76" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="G76" s="43" t="s">
+      <c r="G76" s="54" t="s">
         <v>559</v>
       </c>
-      <c r="H76" s="44" t="s">
+      <c r="H76" s="55" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A77" s="179"/>
-      <c r="B77" s="127"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="147"/>
-      <c r="E77" s="151"/>
-      <c r="F77" s="104" t="s">
+      <c r="A77" s="207"/>
+      <c r="B77" s="146"/>
+      <c r="C77" s="136"/>
+      <c r="D77" s="179"/>
+      <c r="E77" s="177"/>
+      <c r="F77" s="120" t="s">
         <v>472</v>
       </c>
-      <c r="G77" s="43" t="s">
+      <c r="G77" s="54" t="s">
         <v>560</v>
       </c>
-      <c r="H77" s="44" t="s">
+      <c r="H77" s="55" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A78" s="179"/>
-      <c r="B78" s="127"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="147"/>
-      <c r="E78" s="104" t="s">
+      <c r="A78" s="207"/>
+      <c r="B78" s="146"/>
+      <c r="C78" s="136"/>
+      <c r="D78" s="179"/>
+      <c r="E78" s="120" t="s">
         <v>593</v>
       </c>
-      <c r="F78" s="110"/>
-      <c r="G78" s="43" t="s">
+      <c r="F78" s="126"/>
+      <c r="G78" s="54" t="s">
         <v>594</v>
       </c>
-      <c r="H78" s="44" t="s">
+      <c r="H78" s="55" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A79" s="179"/>
-      <c r="B79" s="127"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="147"/>
-      <c r="E79" s="104" t="s">
+      <c r="A79" s="207"/>
+      <c r="B79" s="146"/>
+      <c r="C79" s="136"/>
+      <c r="D79" s="179"/>
+      <c r="E79" s="120" t="s">
         <v>563</v>
       </c>
-      <c r="F79" s="110"/>
-      <c r="G79" s="43" t="s">
+      <c r="F79" s="126"/>
+      <c r="G79" s="54" t="s">
         <v>596</v>
       </c>
-      <c r="H79" s="44" t="s">
+      <c r="H79" s="55" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A80" s="179"/>
-      <c r="B80" s="127"/>
-      <c r="C80" s="118"/>
-      <c r="D80" s="147"/>
-      <c r="E80" s="104" t="s">
+      <c r="A80" s="207"/>
+      <c r="B80" s="146"/>
+      <c r="C80" s="136"/>
+      <c r="D80" s="179"/>
+      <c r="E80" s="120" t="s">
         <v>565</v>
       </c>
-      <c r="F80" s="110"/>
-      <c r="G80" s="43" t="s">
+      <c r="F80" s="126"/>
+      <c r="G80" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="H80" s="44" t="s">
+      <c r="H80" s="55" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A81" s="179"/>
-      <c r="B81" s="127"/>
-      <c r="C81" s="118"/>
-      <c r="D81" s="148"/>
-      <c r="E81" s="104" t="s">
+      <c r="A81" s="207"/>
+      <c r="B81" s="146"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="180"/>
+      <c r="E81" s="120" t="s">
         <v>598</v>
       </c>
-      <c r="F81" s="110"/>
-      <c r="G81" s="43" t="s">
+      <c r="F81" s="126"/>
+      <c r="G81" s="54" t="s">
         <v>599</v>
       </c>
-      <c r="H81" s="44" t="s">
+      <c r="H81" s="55" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A82" s="179"/>
-      <c r="B82" s="123"/>
-      <c r="C82" s="128" t="s">
+      <c r="A82" s="207"/>
+      <c r="B82" s="141"/>
+      <c r="C82" s="147" t="s">
         <v>143</v>
       </c>
-      <c r="D82" s="128"/>
-      <c r="E82" s="110"/>
-      <c r="F82" s="110"/>
-      <c r="G82" s="43" t="s">
+      <c r="D82" s="147"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="54" t="s">
         <v>600</v>
       </c>
-      <c r="H82" s="44" t="s">
+      <c r="H82" s="55" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="68.25" thickBot="1">
-      <c r="A83" s="179"/>
-      <c r="B83" s="123"/>
-      <c r="C83" s="154" t="s">
+      <c r="A83" s="207"/>
+      <c r="B83" s="141"/>
+      <c r="C83" s="182" t="s">
         <v>467</v>
       </c>
-      <c r="D83" s="120" t="s">
+      <c r="D83" s="138" t="s">
         <v>601</v>
       </c>
-      <c r="E83" s="110"/>
-      <c r="F83" s="110"/>
-      <c r="G83" s="46" t="s">
+      <c r="E83" s="126"/>
+      <c r="F83" s="126"/>
+      <c r="G83" s="57" t="s">
         <v>602</v>
       </c>
-      <c r="H83" s="44" t="s">
+      <c r="H83" s="55" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A84" s="179"/>
-      <c r="B84" s="123"/>
-      <c r="C84" s="155"/>
-      <c r="D84" s="146" t="s">
+      <c r="A84" s="207"/>
+      <c r="B84" s="141"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="178" t="s">
         <v>603</v>
       </c>
-      <c r="E84" s="104" t="s">
+      <c r="E84" s="120" t="s">
         <v>506</v>
       </c>
-      <c r="F84" s="109"/>
-      <c r="G84" s="43" t="s">
+      <c r="F84" s="125"/>
+      <c r="G84" s="54" t="s">
         <v>386</v>
       </c>
-      <c r="H84" s="53" t="s">
+      <c r="H84" s="64" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A85" s="179"/>
-      <c r="B85" s="123"/>
-      <c r="C85" s="155"/>
-      <c r="D85" s="147"/>
-      <c r="E85" s="104" t="s">
+      <c r="A85" s="207"/>
+      <c r="B85" s="141"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="179"/>
+      <c r="E85" s="120" t="s">
         <v>504</v>
       </c>
-      <c r="F85" s="109"/>
-      <c r="G85" s="46" t="s">
+      <c r="F85" s="125"/>
+      <c r="G85" s="57" t="s">
         <v>604</v>
       </c>
-      <c r="H85" s="44" t="s">
+      <c r="H85" s="55" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A86" s="179"/>
-      <c r="B86" s="123"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="148"/>
-      <c r="E86" s="104" t="s">
+      <c r="A86" s="207"/>
+      <c r="B86" s="141"/>
+      <c r="C86" s="199"/>
+      <c r="D86" s="180"/>
+      <c r="E86" s="120" t="s">
         <v>545</v>
       </c>
-      <c r="F86" s="109"/>
-      <c r="G86" s="39" t="s">
+      <c r="F86" s="125"/>
+      <c r="G86" s="50" t="s">
         <v>605</v>
       </c>
-      <c r="H86" s="53" t="s">
+      <c r="H86" s="64" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A87" s="179"/>
-      <c r="B87" s="123"/>
-      <c r="C87" s="103" t="s">
+      <c r="A87" s="207"/>
+      <c r="B87" s="141"/>
+      <c r="C87" s="119" t="s">
         <v>482</v>
       </c>
-      <c r="D87" s="128"/>
-      <c r="E87" s="104"/>
-      <c r="F87" s="104"/>
-      <c r="G87" s="43" t="s">
+      <c r="D87" s="147"/>
+      <c r="E87" s="120"/>
+      <c r="F87" s="120"/>
+      <c r="G87" s="54" t="s">
         <v>606</v>
       </c>
-      <c r="H87" s="44" t="s">
+      <c r="H87" s="55" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A88" s="179"/>
-      <c r="B88" s="123"/>
-      <c r="C88" s="104" t="s">
+      <c r="A88" s="207"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="120" t="s">
         <v>545</v>
       </c>
-      <c r="D88" s="110"/>
-      <c r="E88" s="104"/>
-      <c r="F88" s="104"/>
-      <c r="G88" s="43" t="s">
+      <c r="D88" s="126"/>
+      <c r="E88" s="120"/>
+      <c r="F88" s="120"/>
+      <c r="G88" s="54" t="s">
         <v>607</v>
       </c>
-      <c r="H88" s="44" t="s">
+      <c r="H88" s="55" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="22.5">
-      <c r="A89" s="179"/>
-      <c r="B89" s="157"/>
-      <c r="C89" s="135" t="s">
+      <c r="A89" s="207"/>
+      <c r="B89" s="165"/>
+      <c r="C89" s="154" t="s">
         <v>608</v>
       </c>
-      <c r="D89" s="149"/>
-      <c r="E89" s="135"/>
-      <c r="F89" s="149"/>
-      <c r="G89" s="45" t="s">
+      <c r="D89" s="166"/>
+      <c r="E89" s="154"/>
+      <c r="F89" s="166"/>
+      <c r="G89" s="56" t="s">
         <v>609</v>
       </c>
-      <c r="H89" s="158" t="s">
+      <c r="H89" s="174" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A90" s="180"/>
-      <c r="B90" s="136"/>
-      <c r="C90" s="136"/>
-      <c r="D90" s="151"/>
-      <c r="E90" s="136"/>
-      <c r="F90" s="151"/>
-      <c r="G90" s="43" t="s">
+      <c r="A90" s="208"/>
+      <c r="B90" s="155"/>
+      <c r="C90" s="155"/>
+      <c r="D90" s="177"/>
+      <c r="E90" s="155"/>
+      <c r="F90" s="177"/>
+      <c r="G90" s="54" t="s">
         <v>496</v>
       </c>
-      <c r="H90" s="160"/>
+      <c r="H90" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A2:A90"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D43:D57"/>
+    <mergeCell ref="D58:D67"/>
+    <mergeCell ref="D68:D81"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="E74:E77"/>
     <mergeCell ref="C83:C86"/>
     <mergeCell ref="D84:D86"/>
@@ -9357,34 +9456,6 @@
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A90"/>
-    <mergeCell ref="D30:D37"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D43:D57"/>
-    <mergeCell ref="D58:D67"/>
-    <mergeCell ref="D68:D81"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9392,7 +9463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -9409,191 +9480,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="52" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="182" t="s">
         <v>474</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="144" t="s">
         <v>415</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="145"/>
+      <c r="D2" s="61" t="s">
         <v>610</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="62" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A3" s="155"/>
-      <c r="B3" s="120" t="s">
+      <c r="A3" s="183"/>
+      <c r="B3" s="138" t="s">
         <v>417</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="62" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="183"/>
+      <c r="B4" s="178" t="s">
         <v>448</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="61" t="s">
         <v>611</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="55" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="106" t="s">
+      <c r="A5" s="183"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="61" t="s">
         <v>388</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="62" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="148"/>
-      <c r="C6" s="106" t="s">
+      <c r="A6" s="183"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="134" t="s">
         <v>451</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="61" t="s">
         <v>612</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="62" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34.5" thickBot="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="124" t="s">
+      <c r="A7" s="183"/>
+      <c r="B7" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="137"/>
+      <c r="D7" s="61" t="s">
         <v>389</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="62" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="57" thickBot="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="106" t="s">
+      <c r="A8" s="183"/>
+      <c r="B8" s="134" t="s">
         <v>614</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="137"/>
+      <c r="D8" s="57" t="s">
         <v>390</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="62" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A9" s="155"/>
-      <c r="B9" s="106" t="s">
+      <c r="A9" s="183"/>
+      <c r="B9" s="134" t="s">
         <v>616</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="46" t="s">
+      <c r="C9" s="137"/>
+      <c r="D9" s="57" t="s">
         <v>391</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="62" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A10" s="155"/>
-      <c r="B10" s="106" t="s">
+      <c r="A10" s="183"/>
+      <c r="B10" s="134" t="s">
         <v>618</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="137"/>
+      <c r="D10" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="55" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A11" s="155"/>
-      <c r="B11" s="124" t="s">
+      <c r="A11" s="183"/>
+      <c r="B11" s="142" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="142"/>
+      <c r="D11" s="61" t="s">
         <v>409</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="62" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34.5" thickBot="1">
-      <c r="A12" s="155"/>
-      <c r="B12" s="124" t="s">
+      <c r="A12" s="183"/>
+      <c r="B12" s="142" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="142"/>
+      <c r="D12" s="61" t="s">
         <v>393</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="62" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="113.25" thickBot="1">
-      <c r="A13" s="156"/>
-      <c r="B13" s="117" t="s">
+      <c r="A13" s="184"/>
+      <c r="B13" s="135" t="s">
         <v>321</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="43" t="s">
+      <c r="C13" s="126"/>
+      <c r="D13" s="54" t="s">
         <v>410</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="62" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" customHeight="1">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="209" t="s">
         <v>412</v>
       </c>
-      <c r="B14" s="188"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="27"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9607,195 +9678,195 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="16"/>
-    <col min="3" max="3" width="82.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="78.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="4.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="20"/>
+    <col min="3" max="3" width="82.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="78.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="65.7109375" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2"/>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="210" t="s">
         <v>638</v>
       </c>
-      <c r="C2" s="192"/>
+      <c r="C2" s="211"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1">
       <c r="A5"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="101" t="s">
         <v>632</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="102" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" thickBot="1">
       <c r="A6"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="101" t="s">
         <v>626</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="102" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1">
       <c r="A7"/>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="101" t="s">
         <v>627</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="102" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1">
       <c r="A8"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="113" t="s">
         <v>629</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="114" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A9" s="55"/>
+      <c r="A9" s="66"/>
       <c r="B9"/>
       <c r="C9"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1">
       <c r="A10"/>
-      <c r="B10" s="189" t="s">
+      <c r="B10" s="212" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="190"/>
+      <c r="C10" s="213"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1">
       <c r="A11"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1">
       <c r="A12"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1">
       <c r="A13"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="70" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1">
       <c r="A14"/>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="70" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1">
       <c r="A15"/>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="70" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1">
       <c r="A16"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="70" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="70" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
       <c r="A18"/>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="70" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
       <c r="A19"/>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="70" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1">
       <c r="A20"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="70" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29.25" customHeight="1">
       <c r="A21"/>
-      <c r="B21" s="193" t="s">
+      <c r="B21" s="214" t="s">
         <v>667</v>
       </c>
-      <c r="C21" s="193"/>
+      <c r="C21" s="214"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1">
       <c r="A22"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1">
       <c r="A23"/>
-      <c r="B23" s="189" t="s">
+      <c r="B23" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="190"/>
+      <c r="C23" s="213"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1">
       <c r="A24"/>
@@ -9804,28 +9875,28 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1">
       <c r="A25"/>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1">
       <c r="A26"/>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="73" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1">
       <c r="A27"/>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="73" t="s">
         <v>81</v>
       </c>
     </row>
@@ -9836,10 +9907,10 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1">
       <c r="A29"/>
-      <c r="B29" s="189" t="s">
+      <c r="B29" s="212" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="190"/>
+      <c r="C29" s="213"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
       <c r="A30"/>
@@ -9848,28 +9919,28 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1">
       <c r="A31"/>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1">
       <c r="A32"/>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1">
       <c r="A33"/>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="75" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9880,10 +9951,10 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1">
       <c r="A35"/>
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="212" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="190"/>
+      <c r="C35" s="213"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1">
       <c r="A36"/>
@@ -9892,28 +9963,28 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1">
       <c r="A37"/>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38"/>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1">
       <c r="A39"/>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="75" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9924,10 +9995,10 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1">
       <c r="A41"/>
-      <c r="B41" s="189" t="s">
+      <c r="B41" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="190"/>
+      <c r="C41" s="213"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1">
       <c r="A42"/>
@@ -9936,28 +10007,28 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1">
       <c r="A43"/>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1">
       <c r="A44"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1">
       <c r="A45"/>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="77" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9968,10 +10039,10 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1">
       <c r="A47"/>
-      <c r="B47" s="189" t="s">
+      <c r="B47" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="190"/>
+      <c r="C47" s="213"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1">
       <c r="A48"/>
@@ -9980,64 +10051,64 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1">
       <c r="A49"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1">
       <c r="A50"/>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="91" t="s">
         <v>626</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="75" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1">
       <c r="A51"/>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="91" t="s">
         <v>627</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="75" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1">
       <c r="A52"/>
-      <c r="B52" s="80" t="s">
+      <c r="B52" s="91" t="s">
         <v>628</v>
       </c>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="78" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1">
       <c r="A53"/>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="91" t="s">
         <v>629</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="75" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1">
       <c r="A54"/>
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="91" t="s">
         <v>630</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="75" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1">
       <c r="A55"/>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="91" t="s">
         <v>631</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="75" t="s">
         <v>68</v>
       </c>
     </row>
@@ -10048,12 +10119,12 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1">
       <c r="A57"/>
-      <c r="B57" s="189" t="s">
+      <c r="B57" s="212" t="s">
         <v>650</v>
       </c>
-      <c r="C57" s="190"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="86"/>
+      <c r="C57" s="213"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="97"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1">
       <c r="A58"/>
@@ -10062,333 +10133,333 @@
     </row>
     <row r="59" spans="1:5" ht="26.25" thickBot="1">
       <c r="A59"/>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="57" t="s">
+      <c r="C59" s="68" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1">
       <c r="A60"/>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="103" t="s">
         <v>632</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="104" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1">
       <c r="A61"/>
-      <c r="B61" s="89" t="s">
+      <c r="B61" s="103" t="s">
         <v>626</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="104" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="26.25" thickBot="1">
       <c r="A62"/>
-      <c r="B62" s="89" t="s">
+      <c r="B62" s="103" t="s">
         <v>627</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="104" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1">
       <c r="A63"/>
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="103" t="s">
         <v>628</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="104" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1">
       <c r="A64"/>
-      <c r="B64" s="89" t="s">
+      <c r="B64" s="103" t="s">
         <v>629</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="104" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1">
       <c r="A65"/>
-      <c r="B65" s="89" t="s">
+      <c r="B65" s="103" t="s">
         <v>630</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="104" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1">
       <c r="A66"/>
-      <c r="B66" s="89" t="s">
+      <c r="B66" s="103" t="s">
         <v>631</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="26.25" thickBot="1">
       <c r="A67"/>
-      <c r="B67" s="100" t="s">
+      <c r="B67" s="116" t="s">
         <v>633</v>
       </c>
-      <c r="C67" s="102" t="s">
+      <c r="C67" s="118" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="26.25" thickBot="1">
       <c r="A68"/>
-      <c r="B68" s="89" t="s">
+      <c r="B68" s="103" t="s">
         <v>634</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="C68" s="104" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="51.75" thickBot="1">
       <c r="A69"/>
-      <c r="B69" s="89">
+      <c r="B69" s="103">
         <v>10</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="104" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1">
       <c r="A70"/>
-      <c r="B70" s="89">
+      <c r="B70" s="103">
         <v>11</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="C70" s="104" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="26.25" thickBot="1">
       <c r="A71"/>
-      <c r="B71" s="89">
+      <c r="B71" s="103">
         <v>14</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="104" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1">
       <c r="A72"/>
-      <c r="B72" s="89">
+      <c r="B72" s="103">
         <v>15</v>
       </c>
-      <c r="C72" s="59" t="s">
+      <c r="C72" s="104" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="26.25" thickBot="1">
       <c r="A73"/>
-      <c r="B73" s="89">
+      <c r="B73" s="103">
         <v>17</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="104" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1">
       <c r="A74"/>
-      <c r="B74" s="89">
+      <c r="B74" s="103">
         <v>18</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="104" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="26.25" thickBot="1">
       <c r="A75"/>
-      <c r="B75" s="89">
+      <c r="B75" s="103">
         <v>19</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="104" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1">
       <c r="A76"/>
-      <c r="B76" s="89">
+      <c r="B76" s="103">
         <v>20</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C76" s="104" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1">
       <c r="A77"/>
-      <c r="B77" s="83"/>
-      <c r="C77" s="84"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="95"/>
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1">
       <c r="A78"/>
-      <c r="B78" s="189" t="s">
+      <c r="B78" s="212" t="s">
         <v>651</v>
       </c>
-      <c r="C78" s="190"/>
+      <c r="C78" s="213"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1">
       <c r="A79"/>
-      <c r="B79" s="83"/>
-      <c r="C79" s="84"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="95"/>
     </row>
     <row r="80" spans="1:3" ht="26.25" thickBot="1">
       <c r="A80"/>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="57" t="s">
+      <c r="C80" s="68" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1">
       <c r="A81"/>
-      <c r="B81" s="89" t="s">
+      <c r="B81" s="103" t="s">
         <v>632</v>
       </c>
-      <c r="C81" s="90" t="s">
+      <c r="C81" s="105" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1">
       <c r="A82"/>
-      <c r="B82" s="89" t="s">
+      <c r="B82" s="103" t="s">
         <v>626</v>
       </c>
-      <c r="C82" s="91" t="s">
+      <c r="C82" s="106" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="26.25" thickBot="1">
       <c r="A83"/>
-      <c r="B83" s="89" t="s">
+      <c r="B83" s="103" t="s">
         <v>627</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="106" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1">
       <c r="A84"/>
-      <c r="B84" s="89" t="s">
+      <c r="B84" s="103" t="s">
         <v>628</v>
       </c>
-      <c r="C84" s="91" t="s">
+      <c r="C84" s="106" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" thickBot="1">
       <c r="A85"/>
-      <c r="B85" s="89" t="s">
+      <c r="B85" s="103" t="s">
         <v>629</v>
       </c>
-      <c r="C85" s="91" t="s">
+      <c r="C85" s="106" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" thickBot="1">
       <c r="A86"/>
-      <c r="B86" s="89" t="s">
+      <c r="B86" s="103" t="s">
         <v>630</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C86" s="106" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1">
       <c r="A87"/>
-      <c r="B87" s="89" t="s">
+      <c r="B87" s="103" t="s">
         <v>631</v>
       </c>
-      <c r="C87" s="91" t="s">
+      <c r="C87" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="26.25" thickBot="1">
       <c r="A88"/>
-      <c r="B88" s="100" t="s">
+      <c r="B88" s="116" t="s">
         <v>633</v>
       </c>
-      <c r="C88" s="101" t="s">
+      <c r="C88" s="117" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="26.25" thickBot="1">
       <c r="A89"/>
-      <c r="B89" s="89" t="s">
+      <c r="B89" s="103" t="s">
         <v>634</v>
       </c>
-      <c r="C89" s="91" t="s">
+      <c r="C89" s="106" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="51.75" thickBot="1">
       <c r="A90"/>
-      <c r="B90" s="89">
+      <c r="B90" s="103">
         <v>10</v>
       </c>
-      <c r="C90" s="91" t="s">
+      <c r="C90" s="106" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1">
       <c r="A91"/>
-      <c r="B91" s="89">
+      <c r="B91" s="103">
         <v>11</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C91" s="106" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="26.25" thickBot="1">
       <c r="A92"/>
-      <c r="B92" s="89">
+      <c r="B92" s="103">
         <v>14</v>
       </c>
-      <c r="C92" s="91" t="s">
+      <c r="C92" s="106" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1">
       <c r="A93"/>
-      <c r="B93" s="89">
+      <c r="B93" s="103">
         <v>15</v>
       </c>
-      <c r="C93" s="91" t="s">
+      <c r="C93" s="106" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1">
       <c r="A94"/>
-      <c r="B94" s="89">
+      <c r="B94" s="103">
         <v>17</v>
       </c>
-      <c r="C94" s="91" t="s">
+      <c r="C94" s="106" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1">
       <c r="A95"/>
-      <c r="B95" s="89">
+      <c r="B95" s="103">
         <v>18</v>
       </c>
-      <c r="C95" s="91" t="s">
+      <c r="C95" s="106" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1">
       <c r="A96"/>
-      <c r="B96" s="89">
+      <c r="B96" s="103">
         <v>19</v>
       </c>
-      <c r="C96" s="91" t="s">
+      <c r="C96" s="106" t="s">
         <v>652</v>
       </c>
     </row>
@@ -10399,10 +10470,10 @@
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1">
       <c r="A98"/>
-      <c r="B98" s="189" t="s">
+      <c r="B98" s="212" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="190"/>
+      <c r="C98" s="213"/>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1">
       <c r="A99"/>
@@ -10411,46 +10482,46 @@
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1">
       <c r="A100"/>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="C100" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1">
       <c r="A101"/>
-      <c r="B101" s="68" t="s">
+      <c r="B101" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="69" t="s">
+      <c r="C101" s="80" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1">
       <c r="A102"/>
-      <c r="B102" s="68" t="s">
+      <c r="B102" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="69" t="s">
+      <c r="C102" s="80" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1">
       <c r="A103"/>
-      <c r="B103" s="68" t="s">
+      <c r="B103" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C103" s="69" t="s">
+      <c r="C103" s="80" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A104" s="76"/>
-      <c r="B104" s="68" t="s">
+      <c r="A104" s="87"/>
+      <c r="B104" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C104" s="69" t="s">
+      <c r="C104" s="80" t="s">
         <v>47</v>
       </c>
     </row>
@@ -10461,10 +10532,10 @@
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1">
       <c r="A106"/>
-      <c r="B106" s="189" t="s">
+      <c r="B106" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="C106" s="190"/>
+      <c r="C106" s="213"/>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1">
       <c r="A107"/>
@@ -10473,64 +10544,64 @@
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1">
       <c r="A108"/>
-      <c r="B108" s="56" t="s">
+      <c r="B108" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="57" t="s">
+      <c r="C108" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1">
       <c r="A109"/>
-      <c r="B109" s="63" t="s">
+      <c r="B109" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C109" s="64" t="s">
+      <c r="C109" s="75" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1">
       <c r="A110"/>
-      <c r="B110" s="63" t="s">
+      <c r="B110" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="64" t="s">
+      <c r="C110" s="75" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1">
       <c r="A111"/>
-      <c r="B111" s="63" t="s">
+      <c r="B111" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C111" s="64" t="s">
+      <c r="C111" s="75" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1">
       <c r="A112"/>
-      <c r="B112" s="63" t="s">
+      <c r="B112" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C112" s="64" t="s">
+      <c r="C112" s="75" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1">
       <c r="A113"/>
-      <c r="B113" s="63" t="s">
+      <c r="B113" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C113" s="64" t="s">
+      <c r="C113" s="75" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1">
       <c r="A114"/>
-      <c r="B114" s="63" t="s">
+      <c r="B114" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C114" s="64" t="s">
+      <c r="C114" s="75" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10541,75 +10612,75 @@
     </row>
     <row r="116" spans="1:3" ht="15.75" thickBot="1">
       <c r="A116"/>
-      <c r="B116" s="189" t="s">
+      <c r="B116" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="190"/>
+      <c r="C116" s="213"/>
     </row>
     <row r="117" spans="1:3" ht="15.75" thickBot="1">
       <c r="A117"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="81"/>
     </row>
     <row r="118" spans="1:3" ht="15.75" thickBot="1">
       <c r="A118"/>
-      <c r="B118" s="71" t="s">
+      <c r="B118" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C118" s="57" t="s">
+      <c r="C118" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1">
       <c r="A119"/>
-      <c r="B119" s="81" t="s">
+      <c r="B119" s="92" t="s">
         <v>632</v>
       </c>
-      <c r="C119" s="66" t="s">
+      <c r="C119" s="77" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" thickBot="1">
+    <row r="120" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
     </row>
     <row r="121" spans="1:3" ht="15.75" thickBot="1">
       <c r="A121"/>
-      <c r="B121" s="189" t="s">
+      <c r="B121" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="190"/>
+      <c r="C121" s="213"/>
     </row>
     <row r="122" spans="1:3" ht="15.75" thickBot="1">
       <c r="A122"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
-    </row>
-    <row r="123" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B122" s="81"/>
+      <c r="C122" s="81"/>
+    </row>
+    <row r="123" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A123"/>
-      <c r="B123" s="71" t="s">
+      <c r="B123" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C123" s="57" t="s">
+      <c r="C123" s="68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" thickBot="1">
+    <row r="124" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A124"/>
-      <c r="B124" s="65" t="s">
+      <c r="B124" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C124" s="66" t="s">
+      <c r="C124" s="77" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" thickBot="1">
       <c r="A125"/>
-      <c r="B125" s="65" t="s">
+      <c r="B125" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C125" s="66" t="s">
+      <c r="C125" s="77" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10620,10 +10691,10 @@
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1">
       <c r="A127"/>
-      <c r="B127" s="189" t="s">
+      <c r="B127" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="190"/>
+      <c r="C127" s="213"/>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1">
       <c r="A128"/>
@@ -10632,19 +10703,19 @@
     </row>
     <row r="129" spans="1:3" ht="15.75" thickBot="1">
       <c r="A129"/>
-      <c r="B129" s="71" t="s">
+      <c r="B129" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C129" s="57" t="s">
+      <c r="C129" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1">
       <c r="A130"/>
-      <c r="B130" s="63" t="s">
+      <c r="B130" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C130" s="64" t="s">
+      <c r="C130" s="75" t="s">
         <v>200</v>
       </c>
     </row>
@@ -10653,44 +10724,44 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="13.5" thickBot="1">
-      <c r="B132" s="189" t="s">
+      <c r="B132" s="212" t="s">
         <v>189</v>
       </c>
-      <c r="C132" s="190"/>
+      <c r="C132" s="213"/>
     </row>
     <row r="133" spans="1:3" ht="15.75" thickBot="1">
       <c r="B133"/>
       <c r="C133"/>
     </row>
     <row r="134" spans="1:3" ht="13.5" thickBot="1">
-      <c r="B134" s="71" t="s">
+      <c r="B134" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C134" s="57" t="s">
+      <c r="C134" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.5" thickBot="1">
-      <c r="B135" s="65" t="s">
+      <c r="B135" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="C135" s="66" t="s">
+      <c r="C135" s="77" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.5" thickBot="1">
-      <c r="B136" s="65" t="s">
+      <c r="B136" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C136" s="66" t="s">
+      <c r="C136" s="77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.5" thickBot="1">
-      <c r="B137" s="65" t="s">
+      <c r="B137" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C137" s="66" t="s">
+      <c r="C137" s="77" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10699,44 +10770,44 @@
       <c r="C138"/>
     </row>
     <row r="139" spans="1:3" ht="13.5" thickBot="1">
-      <c r="B139" s="189" t="s">
+      <c r="B139" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="190"/>
+      <c r="C139" s="213"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
       <c r="B140"/>
       <c r="C140"/>
     </row>
     <row r="141" spans="1:3" ht="13.5" thickBot="1">
-      <c r="B141" s="71" t="s">
+      <c r="B141" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C141" s="57" t="s">
+      <c r="C141" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.5" thickBot="1">
-      <c r="B142" s="65" t="s">
+      <c r="B142" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="66" t="s">
+      <c r="C142" s="77" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="26.25" thickBot="1">
-      <c r="B143" s="72" t="s">
+      <c r="B143" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C143" s="73" t="s">
+      <c r="C143" s="84" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="64.5" thickBot="1">
-      <c r="B144" s="74" t="s">
+      <c r="B144" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="C144" s="75" t="s">
+      <c r="C144" s="86" t="s">
         <v>619</v>
       </c>
     </row>
@@ -10745,296 +10816,296 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B146" s="189" t="s">
+      <c r="B146" s="212" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="190"/>
+      <c r="C146" s="213"/>
     </row>
     <row r="147" spans="2:3" ht="15.75" thickBot="1">
       <c r="B147"/>
       <c r="C147"/>
     </row>
     <row r="148" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B148" s="71" t="s">
+      <c r="B148" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C148" s="57" t="s">
+      <c r="C148" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B149" s="80" t="s">
+      <c r="B149" s="91" t="s">
         <v>632</v>
       </c>
-      <c r="C149" s="67" t="s">
+      <c r="C149" s="78" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B150" s="80" t="s">
+      <c r="B150" s="91" t="s">
         <v>626</v>
       </c>
-      <c r="C150" s="67" t="s">
+      <c r="C150" s="78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B151" s="80" t="s">
+      <c r="B151" s="91" t="s">
         <v>627</v>
       </c>
-      <c r="C151" s="67" t="s">
+      <c r="C151" s="78" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B152" s="80" t="s">
+      <c r="B152" s="91" t="s">
         <v>628</v>
       </c>
-      <c r="C152" s="67" t="s">
+      <c r="C152" s="78" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B153" s="80" t="s">
+      <c r="B153" s="91" t="s">
         <v>629</v>
       </c>
-      <c r="C153" s="67" t="s">
+      <c r="C153" s="78" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="154" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B154" s="80" t="s">
+      <c r="B154" s="91" t="s">
         <v>630</v>
       </c>
-      <c r="C154" s="67" t="s">
+      <c r="C154" s="78" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="26.25" thickBot="1">
-      <c r="B155" s="80" t="s">
+      <c r="B155" s="91" t="s">
         <v>631</v>
       </c>
-      <c r="C155" s="67" t="s">
+      <c r="C155" s="78" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="26.25" thickBot="1">
-      <c r="B156" s="80" t="s">
+      <c r="B156" s="91" t="s">
         <v>633</v>
       </c>
-      <c r="C156" s="67" t="s">
+      <c r="C156" s="78" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="157" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B157" s="80" t="s">
+      <c r="B157" s="91" t="s">
         <v>634</v>
       </c>
-      <c r="C157" s="67" t="s">
+      <c r="C157" s="78" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="158" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B158" s="80">
+      <c r="B158" s="91">
         <v>10</v>
       </c>
-      <c r="C158" s="67" t="s">
+      <c r="C158" s="78" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B159" s="80">
+      <c r="B159" s="91">
         <v>11</v>
       </c>
-      <c r="C159" s="67" t="s">
+      <c r="C159" s="78" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B160" s="80">
+      <c r="B160" s="91">
         <v>12</v>
       </c>
-      <c r="C160" s="67" t="s">
+      <c r="C160" s="78" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B161" s="80">
+      <c r="B161" s="91">
         <v>13</v>
       </c>
-      <c r="C161" s="67" t="s">
+      <c r="C161" s="78" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B162" s="80">
+      <c r="B162" s="91">
         <v>14</v>
       </c>
-      <c r="C162" s="67" t="s">
+      <c r="C162" s="78" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B163" s="80">
+      <c r="B163" s="91">
         <v>15</v>
       </c>
-      <c r="C163" s="67" t="s">
+      <c r="C163" s="78" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B164" s="80">
+      <c r="B164" s="91">
         <v>90</v>
       </c>
-      <c r="C164" s="67" t="s">
+      <c r="C164" s="78" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B165" s="76"/>
-      <c r="C165" s="76"/>
+      <c r="B165" s="87"/>
+      <c r="C165" s="87"/>
     </row>
     <row r="166" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B166" s="189" t="s">
+      <c r="B166" s="212" t="s">
         <v>161</v>
       </c>
-      <c r="C166" s="190"/>
+      <c r="C166" s="213"/>
     </row>
     <row r="167" spans="2:3" ht="15.75" thickBot="1">
       <c r="B167"/>
       <c r="C167"/>
     </row>
     <row r="168" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B168" s="71" t="s">
+      <c r="B168" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C168" s="57" t="s">
+      <c r="C168" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B169" s="80" t="s">
+      <c r="B169" s="91" t="s">
         <v>632</v>
       </c>
-      <c r="C169" s="67" t="s">
+      <c r="C169" s="78" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B170" s="80" t="s">
+      <c r="B170" s="91" t="s">
         <v>626</v>
       </c>
-      <c r="C170" s="67" t="s">
+      <c r="C170" s="78" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B171" s="80" t="s">
+      <c r="B171" s="91" t="s">
         <v>627</v>
       </c>
-      <c r="C171" s="67" t="s">
+      <c r="C171" s="78" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B172" s="80" t="s">
+      <c r="B172" s="91" t="s">
         <v>628</v>
       </c>
-      <c r="C172" s="67" t="s">
+      <c r="C172" s="78" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B173" s="80" t="s">
+      <c r="B173" s="91" t="s">
         <v>629</v>
       </c>
-      <c r="C173" s="67" t="s">
+      <c r="C173" s="78" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B174" s="80" t="s">
+      <c r="B174" s="91" t="s">
         <v>630</v>
       </c>
-      <c r="C174" s="67" t="s">
+      <c r="C174" s="78" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="26.25" thickBot="1">
-      <c r="B175" s="80" t="s">
+      <c r="B175" s="91" t="s">
         <v>631</v>
       </c>
-      <c r="C175" s="67" t="s">
+      <c r="C175" s="78" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B176" s="80" t="s">
+      <c r="B176" s="91" t="s">
         <v>633</v>
       </c>
-      <c r="C176" s="67" t="s">
+      <c r="C176" s="78" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B177" s="80" t="s">
+      <c r="B177" s="91" t="s">
         <v>634</v>
       </c>
-      <c r="C177" s="67" t="s">
+      <c r="C177" s="78" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B178" s="80">
+      <c r="B178" s="91">
         <v>10</v>
       </c>
-      <c r="C178" s="77" t="s">
+      <c r="C178" s="88" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="26.25" thickBot="1">
-      <c r="B179" s="80">
+      <c r="B179" s="91">
         <v>90</v>
       </c>
-      <c r="C179" s="78" t="s">
+      <c r="C179" s="89" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="15.75" thickBot="1">
       <c r="B180"/>
-      <c r="C180" s="79"/>
+      <c r="C180" s="90"/>
     </row>
     <row r="181" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B181" s="189" t="s">
+      <c r="B181" s="212" t="s">
         <v>181</v>
       </c>
-      <c r="C181" s="190"/>
+      <c r="C181" s="213"/>
     </row>
     <row r="182" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B182" s="70"/>
-      <c r="C182" s="70"/>
+      <c r="B182" s="81"/>
+      <c r="C182" s="81"/>
     </row>
     <row r="183" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B183" s="71" t="s">
+      <c r="B183" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C183" s="57" t="s">
+      <c r="C183" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B184" s="65" t="s">
+      <c r="B184" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C184" s="66" t="s">
+      <c r="C184" s="77" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B185" s="65" t="s">
+      <c r="B185" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C185" s="66" t="s">
+      <c r="C185" s="77" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11043,41 +11114,48 @@
       <c r="C186"/>
     </row>
     <row r="187" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B187" s="189" t="s">
+      <c r="B187" s="212" t="s">
         <v>206</v>
       </c>
-      <c r="C187" s="190"/>
+      <c r="C187" s="213"/>
     </row>
     <row r="188" spans="2:3" ht="15.75" thickBot="1">
       <c r="B188"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B189" s="56" t="s">
+      <c r="B189" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C189" s="57" t="s">
+      <c r="C189" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B190" s="63" t="s">
+      <c r="B190" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C190" s="64" t="s">
+      <c r="C190" s="75" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="191" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B191" s="63" t="s">
+      <c r="B191" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C191" s="64" t="s">
+      <c r="C191" s="75" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B181:C181"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B10:C10"/>
@@ -11092,13 +11170,6 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B181:C181"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0.31496062992125984"/>
@@ -11107,7 +11178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -11121,40 +11192,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="107" t="s">
         <v>672</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="108" t="s">
         <v>673</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="108" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="111" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="95" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="111" t="s">
         <v>670</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="111" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="109"/>
+      <c r="B4" s="112" t="s">
         <v>671</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="111" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11165,7 +11236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -11184,385 +11255,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="34"/>
-      <c r="B1" s="205" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="215" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="230" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="198" t="s">
+      <c r="C3" s="230" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="230" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="198" t="s">
+      <c r="E3" s="230" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="198" t="s">
+      <c r="F3" s="230" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="198" t="s">
+      <c r="G3" s="230" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="195" t="s">
+      <c r="H3" s="227" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="196"/>
-      <c r="J3" s="197"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="229"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" thickBot="1">
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="33" t="s">
+      <c r="B4" s="231"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="39" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="217" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="209"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="219"/>
     </row>
     <row r="6" spans="1:11" ht="48.75" thickBot="1">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="204" t="s">
+      <c r="H6" s="223" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="203" t="s">
+      <c r="I6" s="225" t="s">
         <v>222</v>
       </c>
-      <c r="J6" s="203" t="s">
+      <c r="J6" s="225" t="s">
         <v>222</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="84.75" thickBot="1">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="204"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="29"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="217" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="29"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:11" ht="72.75" thickBot="1">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="H9" s="203" t="s">
+      <c r="H9" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="I9" s="204" t="s">
+      <c r="I9" s="223" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="204" t="s">
+      <c r="J9" s="223" t="s">
         <v>229</v>
       </c>
-      <c r="K9" s="29"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="1:11" ht="84.75" thickBot="1">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="H10" s="203"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="29"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="29"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="221"/>
+      <c r="G11" s="221"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="221"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11" ht="168.75" thickBot="1">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="H12" s="204" t="s">
+      <c r="H12" s="223" t="s">
         <v>223</v>
       </c>
-      <c r="I12" s="203" t="s">
+      <c r="I12" s="224" t="s">
         <v>222</v>
       </c>
-      <c r="J12" s="203" t="s">
+      <c r="J12" s="224" t="s">
         <v>222</v>
       </c>
-      <c r="K12" s="29"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="132.75" thickBot="1">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="204"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="29"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="233" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="233"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="234" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="202"/>
+      <c r="C17" s="234"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="234"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="234"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="226" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="226"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="226"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="232" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="200"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="232"/>
+      <c r="H20" s="232"/>
+      <c r="I20" s="232"/>
+      <c r="J20" s="232"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1">
-      <c r="B21" s="194" t="s">
+      <c r="B21" s="226" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="194"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="226"/>
+      <c r="E21" s="226"/>
+      <c r="F21" s="226"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="226"/>
+      <c r="I21" s="226"/>
+      <c r="J21" s="226"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="226" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="194"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="226"/>
+      <c r="J22" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J9:J10"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="H3:J3"/>
@@ -11579,6 +11639,17 @@
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
